--- a/map_template.xlsx
+++ b/map_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/edf72acb7acaf7d5/文档/python codes/git_practice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csh20\Desktop\gzq\tank_war-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="11_AD4DA82427541F7ACA7EB8E6100E3A2E6BE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D97B6285-93D1-4993-A89B-7AA754F2F93E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4B7FFB-3F32-437F-B27C-801AFA122E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,18 +148,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -175,10 +174,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -447,269 +442,209 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.6953125" customWidth="1"/>
+    <col min="1" max="2" width="2.33203125" customWidth="1"/>
+    <col min="3" max="3" width="2.25" customWidth="1"/>
+    <col min="4" max="5" width="2.33203125" customWidth="1"/>
+    <col min="6" max="7" width="2.25" customWidth="1"/>
+    <col min="8" max="16" width="2.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="2">
-        <v>1</v>
-      </c>
+      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="2">
-        <v>1</v>
-      </c>
+      <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5">
-        <v>1</v>
-      </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.65">
+      <c r="P2" s="5"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5">
-        <v>1</v>
-      </c>
-      <c r="P3" s="6"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.65">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5">
-        <v>1</v>
-      </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="6"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.65">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5">
-        <v>1</v>
-      </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="6"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.65">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5">
-        <v>1</v>
-      </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="6"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.65">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5">
-        <v>1</v>
-      </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="6"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.65">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="6"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.65">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5">
-        <v>1</v>
-      </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="6"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.65">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5">
-        <v>1</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="6"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.65">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="6"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.65">
-      <c r="A12" s="7">
-        <v>1</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8">
-        <v>1</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8">
-        <v>1</v>
-      </c>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="9"/>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
